--- a/model/outputData/75_kW_1200_AggDmd/75kW_p_xfmr.xlsx
+++ b/model/outputData/75_kW_1200_AggDmd/75kW_p_xfmr.xlsx
@@ -2351,7 +2351,7 @@
   <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
